--- a/biology/Histoire de la zoologie et de la botanique/Claude_Dendaletche/Claude_Dendaletche.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Claude_Dendaletche/Claude_Dendaletche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claude Dendaletche, né le 2 mai 1941[1] à Navarrenx, est un naturaliste et biologiste de l'université de Pau et des Pays de l'Adour, spécialiste des Pyrénées et à l'origine de la protection de l'ours des Pyrénées.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claude Dendaletche, né le 2 mai 1941 à Navarrenx, est un naturaliste et biologiste de l'université de Pau et des Pays de l'Adour, spécialiste des Pyrénées et à l'origine de la protection de l'ours des Pyrénées.
 Il a beaucoup arpenté les montagnes du monde tout en privilégiant le Pays basque. Il a créé et dirigé le Centre de biologie des écosystèmes d'altitude à l'Université de Pau et est à l'origine du FIEP, Fonds d'Intervention Éco-Pastoral : 
 « Pour que l´ours et le berger puissent vivre ensemble dans les Pyrénées ». Il est l'auteur d'une vingtaine de livres (Pyrénées, Montagnes d'Europe, Himalaya).
 </t>
@@ -513,7 +525,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Guide du naturaliste dans les Pyrénées occidentales, moyennes montagnes, Delachaux et Niestlé, 1973
 Guide du naturaliste dans les Pyrénées occidentales, hautes montagnes, Delachaux et Niestlé, 1974
@@ -560,7 +574,9 @@
           <t>Collaborations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pyrénées l'ours, FIEP, 1981
 Irati : forêt mon amie, Henri Laquet-Fiau, Atlantica, préface de Claude Dendaletche, 1999
